--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -649,31 +649,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 14810-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 14810-2019.xlsx", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 14810-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 14810-2019.png", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/knärot/A 14810-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/knärot/A 14810-2019.png", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 14810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 14810-2019.docx", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 14810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 14810-2019.docx", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 14810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 14810-2019.docx", "A 14810-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 14810-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 14810-2019.docx", "A 14810-2019")</f>
         <v/>
       </c>
     </row>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,31 +743,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 33529-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 33529-2021.xlsx", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 33529-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 33529-2021.png", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/knärot/A 33529-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/knärot/A 33529-2021.png", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 33529-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 33529-2021.docx", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 33529-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 33529-2021.docx", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 33529-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 33529-2021.docx", "A 33529-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 33529-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 33529-2021.docx", "A 33529-2021")</f>
         <v/>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,27 +840,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 28361-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 28361-2019.xlsx", "A 28361-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 28361-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 28361-2019.png", "A 28361-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 28361-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 28361-2019.docx", "A 28361-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 28361-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 28361-2019.docx", "A 28361-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 28361-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 28361-2019.docx", "A 28361-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 28361-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 28361-2019.docx", "A 28361-2019")</f>
         <v/>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,27 +933,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 35212-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 35212-2023.xlsx", "A 35212-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 35212-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 35212-2023.png", "A 35212-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 35212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 35212-2023.docx", "A 35212-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 35212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 35212-2023.docx", "A 35212-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 35212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 35212-2023.docx", "A 35212-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 35212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 35212-2023.docx", "A 35212-2023")</f>
         <v/>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,27 +1024,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 19955-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 19955-2019.xlsx", "A 19955-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 19955-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 19955-2019.png", "A 19955-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 19955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 19955-2019.docx", "A 19955-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 19955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 19955-2019.docx", "A 19955-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 19955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 19955-2019.docx", "A 19955-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 19955-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 19955-2019.docx", "A 19955-2019")</f>
         <v/>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,27 +1110,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 54277-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 54277-2020.xlsx", "A 54277-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 54277-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 54277-2020.png", "A 54277-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 54277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 54277-2020.docx", "A 54277-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 54277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 54277-2020.docx", "A 54277-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 54277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 54277-2020.docx", "A 54277-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 54277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 54277-2020.docx", "A 54277-2020")</f>
         <v/>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,27 +1196,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 16012-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 16012-2023.xlsx", "A 16012-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 16012-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 16012-2023.png", "A 16012-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 16012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 16012-2023.docx", "A 16012-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 16012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 16012-2023.docx", "A 16012-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 16012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 16012-2023.docx", "A 16012-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 16012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 16012-2023.docx", "A 16012-2023")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1286,27 +1286,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 28360-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 28360-2019.xlsx", "A 28360-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 28360-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 28360-2019.png", "A 28360-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 28360-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 28360-2019.docx", "A 28360-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 28360-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 28360-2019.docx", "A 28360-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 28360-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 28360-2019.docx", "A 28360-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 28360-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 28360-2019.docx", "A 28360-2019")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,27 +1376,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 32604-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 32604-2020.xlsx", "A 32604-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 32604-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 32604-2020.png", "A 32604-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 32604-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 32604-2020.docx", "A 32604-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 32604-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 32604-2020.docx", "A 32604-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 32604-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 32604-2020.docx", "A 32604-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 32604-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 32604-2020.docx", "A 32604-2020")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,27 +1466,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 34064-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 34064-2020.xlsx", "A 34064-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 34064-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 34064-2020.png", "A 34064-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 34064-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 34064-2020.docx", "A 34064-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 34064-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 34064-2020.docx", "A 34064-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 34064-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 34064-2020.docx", "A 34064-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 34064-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 34064-2020.docx", "A 34064-2020")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,27 +1556,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 34062-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 34062-2020.xlsx", "A 34062-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 34062-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 34062-2020.png", "A 34062-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 34062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 34062-2020.docx", "A 34062-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 34062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 34062-2020.docx", "A 34062-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 34062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 34062-2020.docx", "A 34062-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 34062-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 34062-2020.docx", "A 34062-2020")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,27 +1641,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 36828-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 36828-2020.xlsx", "A 36828-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 36828-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 36828-2020.png", "A 36828-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 36828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 36828-2020.docx", "A 36828-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 36828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 36828-2020.docx", "A 36828-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 36828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 36828-2020.docx", "A 36828-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 36828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 36828-2020.docx", "A 36828-2020")</f>
         <v/>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1731,27 +1731,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 37469-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 37469-2020.xlsx", "A 37469-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 37469-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 37469-2020.png", "A 37469-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 37469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 37469-2020.docx", "A 37469-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 37469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 37469-2020.docx", "A 37469-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 37469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 37469-2020.docx", "A 37469-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 37469-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 37469-2020.docx", "A 37469-2020")</f>
         <v/>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1816,27 +1816,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 36209-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 36209-2021.xlsx", "A 36209-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 36209-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 36209-2021.png", "A 36209-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 36209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 36209-2021.docx", "A 36209-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 36209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 36209-2021.docx", "A 36209-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 36209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 36209-2021.docx", "A 36209-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 36209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 36209-2021.docx", "A 36209-2021")</f>
         <v/>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1901,27 +1901,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 45826-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 45826-2021.xlsx", "A 45826-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 45826-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 45826-2021.png", "A 45826-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 45826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 45826-2021.docx", "A 45826-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 45826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 45826-2021.docx", "A 45826-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 45826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 45826-2021.docx", "A 45826-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 45826-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 45826-2021.docx", "A 45826-2021")</f>
         <v/>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,27 +1991,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 53151-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 53151-2021.xlsx", "A 53151-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 53151-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 53151-2021.png", "A 53151-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 53151-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 53151-2021.docx", "A 53151-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 53151-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 53151-2021.docx", "A 53151-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 53151-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 53151-2021.docx", "A 53151-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 53151-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 53151-2021.docx", "A 53151-2021")</f>
         <v/>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,27 +2076,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 69022-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 69022-2021.xlsx", "A 69022-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 69022-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 69022-2021.png", "A 69022-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 69022-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 69022-2021.docx", "A 69022-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 69022-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 69022-2021.docx", "A 69022-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 69022-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 69022-2021.docx", "A 69022-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 69022-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 69022-2021.docx", "A 69022-2021")</f>
         <v/>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,27 +2161,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 48269-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 48269-2022.xlsx", "A 48269-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 48269-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 48269-2022.png", "A 48269-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 48269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 48269-2022.docx", "A 48269-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 48269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 48269-2022.docx", "A 48269-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 48269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 48269-2022.docx", "A 48269-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 48269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 48269-2022.docx", "A 48269-2022")</f>
         <v/>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,27 +2246,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 6710-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/artfynd/A 6710-2023.xlsx", "A 6710-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 6710-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/kartor/A 6710-2023.png", "A 6710-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 6710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomål/A 6710-2023.docx", "A 6710-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 6710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/klagomålsmail/A 6710-2023.docx", "A 6710-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 6710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsyn/A 6710-2023.docx", "A 6710-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 6710-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KOPING/tillsynsmail/A 6710-2023.docx", "A 6710-2023")</f>
         <v/>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y347"/>
+  <dimension ref="A1:Y349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="R346" s="2" t="inlineStr"/>
     </row>
-    <row r="347">
+    <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
           <t>A 39646-2023</t>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21288,6 +21288,120 @@
         <v>0</v>
       </c>
       <c r="R347" s="2" t="inlineStr"/>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>A 44586-2023</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C348" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" s="2" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>A 44582-2023</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y349"/>
+  <dimension ref="A1:Y350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45189</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
       </c>
       <c r="R348" s="2" t="inlineStr"/>
     </row>
-    <row r="349">
+    <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
           <t>A 44582-2023</t>
@@ -21356,7 +21356,7 @@
         <v>45189</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21402,6 +21402,63 @@
         <v>0</v>
       </c>
       <c r="R349" s="2" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>A 44814-2023</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45189</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45189</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45190</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y350"/>
+  <dimension ref="A1:Y351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45189</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45189</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="R349" s="2" t="inlineStr"/>
     </row>
-    <row r="350">
+    <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
           <t>A 44814-2023</t>
@@ -21413,7 +21413,7 @@
         <v>45190</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21459,6 +21459,63 @@
         <v>0</v>
       </c>
       <c r="R350" s="2" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>A 47282-2023</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C351" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>5</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45189</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45189</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45190</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45202</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>43539</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44377</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43625</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45145</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>43625</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44028</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>44028</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44055</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>44389</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44468</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44858</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44966</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43325</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43328</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43347</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43419</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43427</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43456</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43456</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43514</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43515</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43530</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43535</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43535</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43535</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43557</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43598</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43600</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43602</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43608</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43612</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>43614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>43616</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>43616</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>43620</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43640</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43651</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>43651</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>43654</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>43656</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>43656</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>43665</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43685</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43697</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43697</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43718</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43718</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43733</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43733</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43739</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43740</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43758</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43760</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43760</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43761</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43761</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43763</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43763</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43767</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43775</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43782</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43782</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43784</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>43787</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43788</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43810</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43811</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43838</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43840</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43861</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43871</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43893</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43901</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43907</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43910</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43921</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43921</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43949</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43957</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43976</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>43976</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>43983</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>43985</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>43986</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43990</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43990</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43990</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43990</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43990</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>43990</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43990</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43990</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44011</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44019</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44022</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44027</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44027</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44027</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44028</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44028</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44036</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>44043</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44067</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>44069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44069</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44069</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44069</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44071</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44076</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44081</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44088</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44096</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44099</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44110</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44110</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>44112</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44113</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44117</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44123</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44123</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44126</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44127</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44140</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44143</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44155</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44155</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44167</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44172</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44180</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44186</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>44200</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44224</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44236</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44236</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44246</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44246</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44260</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44265</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44266</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44267</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>44267</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44267</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44278</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>44278</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44286</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44316</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44321</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>44333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>44333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44339</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>44348</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44350</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44350</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44350</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44351</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44354</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44355</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44362</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44370</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44379</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44393</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44441</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44455</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>44461</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>44467</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44472</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44479</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44488</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44488</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44496</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44502</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44512</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44516</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44522</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44525</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44538</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44539</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44539</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44545</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44545</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44550</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44552</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44558</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44581</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44606</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44613</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44614</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44614</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44615</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44623</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44658</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44663</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44673</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44683</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44712</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44721</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44722</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44725</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44733</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44734</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44734</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44743</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44755</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44755</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44757</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44770</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44774</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44785</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>44797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17482,7 +17482,7 @@
         <v>44797</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>44825</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         <v>44827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44837</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44839</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44839</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44840</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44847</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44890</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>44894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>44894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>44894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>44896</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44897</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44900</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44914</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44915</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>44917</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>44964</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>44966</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>44970</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>44977</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44985</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44988</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45005</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45021</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45021</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45040</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45050</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45050</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>45051</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>45051</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>45051</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45068</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45069</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45069</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45076</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45099</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45106</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45114</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45138</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45138</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45147</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45149</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45149</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45152</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45153</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45153</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45153</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45159</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45166</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45189</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45189</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45190</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>45202</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
